--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Informatica II\Proyecto final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BEBA39-D9FC-4070-AD71-86E6445C4C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231BCF06-B5B2-4A43-B514-EF853D4905BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{73E1682B-9BFC-43BF-B85B-006920077F82}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -45,16 +45,55 @@
     <t>Diseño fondo para ambiente del juego</t>
   </si>
   <si>
-    <t>Realizar pruebas de movimiento del personaje</t>
-  </si>
-  <si>
     <t>Diseño plataformas</t>
   </si>
   <si>
     <t>Creación de la clase plataforma</t>
   </si>
   <si>
-    <t>Pruebas de movimiento personaje sobre plataformas</t>
+    <t>Pruebas de movimiento de plataformas</t>
+  </si>
+  <si>
+    <t>Movimiento personaje en plataformas</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de movimiento del personaje horizontalmente</t>
+  </si>
+  <si>
+    <t>Creación de clase barras para nivel de sangre</t>
+  </si>
+  <si>
+    <t>Aparición de poción</t>
+  </si>
+  <si>
+    <t>Pruebas de personaje con poción</t>
+  </si>
+  <si>
+    <t>Efecto de la poción en la clase barra para nivel de sangre</t>
+  </si>
+  <si>
+    <t>Mostrar barra de puntaje</t>
+  </si>
+  <si>
+    <t>Cargar puntos a medida que sube el personaje</t>
+  </si>
+  <si>
+    <t>Mostrar llave</t>
+  </si>
+  <si>
+    <t>Mostrar monedas</t>
+  </si>
+  <si>
+    <t>Interacción de personaje con monedas</t>
+  </si>
+  <si>
+    <t>Mostrar barra de tiempo</t>
+  </si>
+  <si>
+    <t>Efecto de poción con barra de tiempo</t>
+  </si>
+  <si>
+    <t>Interacción del personaje con la llave</t>
   </si>
 </sst>
 </file>
@@ -98,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -121,20 +160,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,187 +532,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3594373-20D4-41A8-8728-DD286FDC9901}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
